--- a/画面項目定義/ログイン画面項目定義.xlsx
+++ b/画面項目定義/ログイン画面項目定義.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81707\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\k022c0080\グループ演習\group_project\画面項目定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A75CE163-4167-4EB8-8393-0597EEFA05D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB5AD445-FF4C-45FF-B51F-579EF3B38636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{424AF04E-7FB1-4182-826A-EADAD9E3D2EA}"/>
+    <workbookView xWindow="705" yWindow="705" windowWidth="13583" windowHeight="12600" xr2:uid="{424AF04E-7FB1-4182-826A-EADAD9E3D2EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -110,67 +110,40 @@
     <t>有効なURLか確認。</t>
   </si>
   <si>
-    <r>
-      <t>リンク先(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>add.html</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)に遷移。</t>
-    </r>
-  </si>
-  <si>
     <t>メインページリンク</t>
   </si>
   <si>
     <t>「メインページに戻る」</t>
   </si>
   <si>
-    <r>
-      <t>リンク先(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>main.html</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)に遷移。</t>
-    </r>
+    <t>新規登録画面に遷移。</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>各々のメインページに遷移。</t>
+    <rPh sb="0" eb="2">
+      <t>オノオノ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,12 +160,6 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial Unicode MS"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="6"/>
@@ -570,13 +537,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D59E471F-6F27-413F-9241-6E959A086FEF}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="36">
+    <row r="1" spans="1:6" ht="35.25" x14ac:dyDescent="0.7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -596,7 +563,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="108">
+    <row r="2" spans="1:6" ht="105.75" x14ac:dyDescent="0.7">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -616,7 +583,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="126">
+    <row r="3" spans="1:6" ht="123.4" x14ac:dyDescent="0.7">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -636,7 +603,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="108">
+    <row r="4" spans="1:6" ht="105.75" x14ac:dyDescent="0.7">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -656,7 +623,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="54">
+    <row r="5" spans="1:6" ht="52.9" x14ac:dyDescent="0.7">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
@@ -673,12 +640,12 @@
         <v>23</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="70.5" x14ac:dyDescent="0.7">
+      <c r="A6" s="2" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="54">
-      <c r="A6" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>21</v>
@@ -687,7 +654,7 @@
         <v>17</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>23</v>
@@ -697,7 +664,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3"/>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>